--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/110.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/110.xlsx
@@ -479,13 +479,13 @@
         <v>6.495117727418554</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.508114269351827</v>
+        <v>-8.390506112924603</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.163715235279792</v>
+        <v>-2.230381241349862</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.899695497286218</v>
+        <v>-5.982124635977725</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>6.461924200954724</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.206785010500539</v>
+        <v>-9.08019553432389</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.081115896651343</v>
+        <v>-2.143854211868894</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.82530503253953</v>
+        <v>-5.899839512617477</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>6.433750445443643</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.784574519511594</v>
+        <v>-9.650614076835053</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.174568754335583</v>
+        <v>-2.238197346146372</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.677610764182019</v>
+        <v>-5.756230042746584</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>6.422296059962063</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.44174266065203</v>
+        <v>-10.3025452968388</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.07244879217012</v>
+        <v>-2.139874151805009</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.565763221005153</v>
+        <v>-5.619729693318748</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>6.429220317947038</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.12446697693952</v>
+        <v>-10.97539801678363</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.201002113773028</v>
+        <v>-2.262405014100723</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.108763298011863</v>
+        <v>-5.167508460862687</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>6.470258631635597</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.62619020644015</v>
+        <v>-11.48759508855764</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.975722858775448</v>
+        <v>-2.047390124531056</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.025339144304384</v>
+        <v>-5.060753823491253</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>6.55665606920473</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.23985262523753</v>
+        <v>-12.1039807063461</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.828683205560022</v>
+        <v>-1.900402840526998</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.607917252801633</v>
+        <v>-4.630724044351919</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>6.686417583897552</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.85130244485467</v>
+        <v>-12.71175158886471</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.748231004597616</v>
+        <v>-1.8218359311738</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.022233085177016</v>
+        <v>-4.051180166760073</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>6.860733212415488</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.46823793936248</v>
+        <v>-13.3372756340367</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.675843662185712</v>
+        <v>-1.727518981502005</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.656119928510989</v>
+        <v>-3.691600069212067</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>7.084045895922516</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.32986857398216</v>
+        <v>-14.19661511565907</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.501192342277087</v>
+        <v>-1.559335259197192</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.158075636108888</v>
+        <v>-3.173734030307592</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>7.346424366151928</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.9838683778349</v>
+        <v>-14.84980319673563</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.364626531335042</v>
+        <v>-1.422141017718745</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.740562098486243</v>
+        <v>-2.745563358171782</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>7.629409092928811</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.71453670712879</v>
+        <v>-15.59772718117491</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.199990823100337</v>
+        <v>-1.266434260022096</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.134755061393895</v>
+        <v>-2.142086750985261</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>7.925292931207522</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.36985883356855</v>
+        <v>-16.250457031652</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9850152104391946</v>
+        <v>-1.045776587927645</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.431672214187521</v>
+        <v>-1.434722720749643</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>8.212508627201311</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.00441656770133</v>
+        <v>-16.89196677859374</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7591337095108946</v>
+        <v>-0.8302903754556759</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.256327002228284</v>
+        <v>-1.267874413334686</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>8.46144726658981</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.85244429966845</v>
+        <v>-17.75714542728353</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5681170110501114</v>
+        <v>-0.6456234438731296</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7380943788442409</v>
+        <v>-0.7398356551221905</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>8.660867700410158</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.73023083599482</v>
+        <v>-18.61294998713863</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2663787074568507</v>
+        <v>-0.3313034372489702</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5232235046058327</v>
+        <v>-0.5217571666875593</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>8.797254531589035</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.47787988207443</v>
+        <v>-19.36804855353519</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1508391348786181</v>
+        <v>-0.1926035809437243</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1123608568267852</v>
+        <v>-0.110698134365886</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.852961149255105</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.15388784700411</v>
+        <v>-20.03900288956796</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08432480876446552</v>
+        <v>0.04233779355105002</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03230908957428786</v>
+        <v>0.03525485771367622</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.829612858079855</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.63118083940207</v>
+        <v>-20.55117377673628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1746616983723754</v>
+        <v>0.1460942935717291</v>
       </c>
       <c r="G20" t="n">
-        <v>0.287569718079421</v>
+        <v>0.2832099812331262</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>8.733497073544697</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.28158025997334</v>
+        <v>-21.19527579964068</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4160706704709624</v>
+        <v>0.3960394471231215</v>
       </c>
       <c r="G21" t="n">
-        <v>0.434059494575494</v>
+        <v>0.4281941429024007</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>8.567668766754304</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.70780017898573</v>
+        <v>-21.6154470747402</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5239512458867852</v>
+        <v>0.5147473569890517</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6271185922795866</v>
+        <v>0.5906827134710629</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>8.344223960054297</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.08072133312946</v>
+        <v>-21.99783396383849</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6673512389122108</v>
+        <v>0.6570083196672472</v>
       </c>
       <c r="G23" t="n">
-        <v>0.669878053360664</v>
+        <v>0.6221827941082558</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>8.086522812365065</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.3760836852388</v>
+        <v>-22.30271442011377</v>
       </c>
       <c r="F24" t="n">
-        <v>0.854309323492059</v>
+        <v>0.843416527527743</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8278105025404054</v>
+        <v>0.7557766523052286</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.809955650351274</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.51151046583361</v>
+        <v>-22.46068614620203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8627669511278141</v>
+        <v>0.8607769210958718</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9370264928460843</v>
+        <v>0.8623610897397206</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>7.525126971117258</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.73320242985256</v>
+        <v>-22.68751029293494</v>
       </c>
       <c r="F26" t="n">
-        <v>1.024928214125433</v>
+        <v>1.025399537027735</v>
       </c>
       <c r="G26" t="n">
-        <v>0.745342086940373</v>
+        <v>0.6480662768263483</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>7.259664184415877</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.60455746212976</v>
+        <v>-22.56077680142703</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9830590296375932</v>
+        <v>0.9901812423834921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6312950368860972</v>
+        <v>0.5358259645642307</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>7.029170796829055</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.71142993022677</v>
+        <v>-22.66618293160576</v>
       </c>
       <c r="F28" t="n">
-        <v>0.981540322507953</v>
+        <v>0.9851014288809025</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1953082599537774</v>
+        <v>0.09024252964892571</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.83806453189932</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.45721668594897</v>
+        <v>-22.40233375243646</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9518077027543931</v>
+        <v>0.9465838739205443</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03258945561214827</v>
+        <v>-0.1416352459808847</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.708665563852805</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.30860595639254</v>
+        <v>-22.24396925726294</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8881267417322375</v>
+        <v>0.8792239757998638</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5011891589232077</v>
+        <v>-0.6095410572413327</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.65481464206499</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.83880176122004</v>
+        <v>-21.79220625540634</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8769982843167703</v>
+        <v>0.8752308234331373</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.797258495386001</v>
+        <v>-0.8952936590648458</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.674628155516446</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.36915467368165</v>
+        <v>-21.32845070414672</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8295517788183551</v>
+        <v>0.8154906455663412</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.219301969791883</v>
+        <v>-1.314103334668821</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.779360813607734</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.1656610106127</v>
+        <v>-21.10829053956025</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7316082612594024</v>
+        <v>0.7193669581023885</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.63122509410111</v>
+        <v>-1.725699151407005</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.975965887069941</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.67007807114484</v>
+        <v>-20.62128305845373</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6884560310930732</v>
+        <v>0.6677701926031461</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.022318364589151</v>
+        <v>-2.095609075897134</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>7.253532949792683</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.28440501403328</v>
+        <v>-20.23212744878626</v>
       </c>
       <c r="F35" t="n">
-        <v>0.644544447361924</v>
+        <v>0.612232643948544</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.219187322420186</v>
+        <v>-2.300752369124139</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>7.602020836806288</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.73412243329269</v>
+        <v>-19.67320394817014</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6614858872391175</v>
+        <v>0.6289384223745865</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.543797879077942</v>
+        <v>-2.619275004960493</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>8.019377864945765</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.35650114242878</v>
+        <v>-19.30494365383807</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5836128699365308</v>
+        <v>0.547857790875777</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.775309070228184</v>
+        <v>-2.848128458633864</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>8.48772067058043</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.64858723547381</v>
+        <v>-18.60625982038651</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7583558359650487</v>
+        <v>0.7179922663040073</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.849817365700447</v>
+        <v>-2.913537603631128</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>8.981359736137257</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.20123633967487</v>
+        <v>-18.13330038022916</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8550163078455123</v>
+        <v>0.8070199256277445</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.768186857482285</v>
+        <v>-2.849319858192461</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>9.494327969206697</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.60001160857713</v>
+        <v>-17.5411093380922</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7452373485176392</v>
+        <v>0.6963637820094758</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.824235005947714</v>
+        <v>-2.905734591137459</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>10.00920726711712</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.05208564234805</v>
+        <v>-16.98802500454348</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9072284115783158</v>
+        <v>0.8477893566768795</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.993597035508283</v>
+        <v>-3.057199442713388</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>10.49763509490908</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.40634708158844</v>
+        <v>-16.34061062902013</v>
       </c>
       <c r="F42" t="n">
-        <v>0.886765142236698</v>
+        <v>0.8243279499845063</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.140505765695291</v>
+        <v>-3.205142464824893</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>10.95618911597777</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.84188553687026</v>
+        <v>-15.77680369944404</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9104098411688553</v>
+        <v>0.8513111861413037</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.159751450872628</v>
+        <v>-3.214045230757266</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>11.37659935934613</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.24741643403885</v>
+        <v>-15.19244185440644</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9955883634571251</v>
+        <v>0.9221667291207253</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.324020574627765</v>
+        <v>-3.361543114572152</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>11.73932011964413</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.74545754308707</v>
+        <v>-14.66368301953765</v>
       </c>
       <c r="F45" t="n">
-        <v>0.962661221810184</v>
+        <v>0.8916223865909784</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.423914845310135</v>
+        <v>-3.45322851137276</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>12.04363847042582</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.28003926936655</v>
+        <v>-14.19074976398598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7731501381761992</v>
+        <v>0.7029230257331806</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.455454202855853</v>
+        <v>-3.480159378318191</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>12.29142179438653</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.51005475463896</v>
+        <v>-13.41305388288461</v>
       </c>
       <c r="F47" t="n">
-        <v>0.82587284171983</v>
+        <v>0.7522155459322791</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.330108495449168</v>
+        <v>-3.356149085801361</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>12.47373627760912</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.93805204348394</v>
+        <v>-12.84097261791254</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7506313772884303</v>
+        <v>0.6779036350026421</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.344654043906325</v>
+        <v>-3.386654151422583</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>12.58656564019713</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.51875795267483</v>
+        <v>-12.42434935688314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7152690673129282</v>
+        <v>0.6383517881177876</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.477462363932795</v>
+        <v>-3.511908212709376</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>12.64031387043873</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.97083198644575</v>
+        <v>-11.87381802238856</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6620226716556283</v>
+        <v>0.5908136364994802</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.628652277149047</v>
+        <v>-3.651616176333435</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>12.63314242906594</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.49072414893681</v>
+        <v>-11.39930059819304</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6689746844645849</v>
+        <v>0.5957625269736526</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.804102227531018</v>
+        <v>-3.824892804443679</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>12.55663179681811</v>
       </c>
       <c r="E52" t="n">
-        <v>-11.03008456575352</v>
+        <v>-10.93259927879403</v>
       </c>
       <c r="F52" t="n">
-        <v>0.610085506282501</v>
+        <v>0.5419924392026837</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.855987023692779</v>
+        <v>-3.886767027673677</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>12.42585318538178</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.42747205055455</v>
+        <v>-10.33777668378589</v>
       </c>
       <c r="F53" t="n">
-        <v>0.587239437823689</v>
+        <v>0.5207174470848789</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.013120842399175</v>
+        <v>-4.039711309470721</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>12.24436591436731</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.990712827754571</v>
+        <v>-9.902509983509862</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5798030098095885</v>
+        <v>0.5060540679021457</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.075898434525252</v>
+        <v>-4.11525389686748</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>12.00445629128205</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.495692857308908</v>
+        <v>-9.421629700133265</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4909455504227938</v>
+        <v>0.4181261620171134</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.189042115683448</v>
+        <v>-4.237797851466036</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>11.72310715783136</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.174407745572951</v>
+        <v>-9.074120705805329</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4624697917420396</v>
+        <v>0.3795955147539136</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.444904990119301</v>
+        <v>-4.499840292843183</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>11.41203540188293</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.656162029886067</v>
+        <v>-8.557511527973661</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4340987714840192</v>
+        <v>0.3489726184071162</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.425043966708403</v>
+        <v>-4.487101482178184</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>11.07088955658712</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.5570532973742</v>
+        <v>-8.434915204163737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3958299702776539</v>
+        <v>0.3011464361262909</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.491448126721637</v>
+        <v>-4.553191426923217</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>10.71537580073511</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.995288767041417</v>
+        <v>-7.891728651563365</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3891398035255318</v>
+        <v>0.3083210180835568</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.729924422983677</v>
+        <v>-4.787412724761697</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>10.36619711392428</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.90564576948412</v>
+        <v>-7.793248349587901</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5081488363568218</v>
+        <v>0.413124902331574</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.790777446592021</v>
+        <v>-4.843447780924284</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>10.03009800791447</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.569461617114277</v>
+        <v>-7.462576056714425</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4621817610795216</v>
+        <v>0.3692787801146334</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.898396175951008</v>
+        <v>-4.956251062208596</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>9.714428700760912</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.285319368540296</v>
+        <v>-7.175108363218646</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4358531400648105</v>
+        <v>0.3404495292571526</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.08879753617823</v>
+        <v>-5.146521499407401</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>9.444219814550896</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.104606312415951</v>
+        <v>-6.993230092141388</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4018524295848478</v>
+        <v>0.3045635271679815</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.04055240020647</v>
+        <v>-5.088300028670245</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>9.226872956531366</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.889237930669558</v>
+        <v>-6.770543113106469</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1988955509324103</v>
+        <v>0.1014364485786015</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.036742540079528</v>
+        <v>-5.072065573146505</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>9.05849298995196</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.832535167062042</v>
+        <v>-6.714233118584206</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1114782448582054</v>
+        <v>0.01940007897234595</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.091127966084058</v>
+        <v>-5.13468605763848</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>8.95797942753947</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.553263255145183</v>
+        <v>-6.451837185030332</v>
       </c>
       <c r="F66" t="n">
-        <v>0.153412890860254</v>
+        <v>0.05656912674000626</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.060714546582728</v>
+        <v>-5.103670392206431</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>8.927476366789826</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.440263589318246</v>
+        <v>-6.329267045826092</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02711144534612261</v>
+        <v>-0.07902785379175063</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.02052117685863</v>
+        <v>-5.050162150492297</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>8.951421100650908</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.226374637792967</v>
+        <v>-6.112039557076173</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.007033280465098978</v>
+        <v>-0.1146912867326124</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.009353442534636</v>
+        <v>-5.032199510993449</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>9.037388292553484</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.247034291677211</v>
+        <v>-6.134348841118475</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.08954097297365667</v>
+        <v>-0.19166093513912</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.896340684404858</v>
+        <v>-4.924266566366259</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>9.18458461447203</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.380798349811126</v>
+        <v>-6.270783729032102</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1237118833905617</v>
+        <v>-0.2328493198791902</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.831795631395148</v>
+        <v>-4.854903545910794</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>9.375476741711621</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.400724834736233</v>
+        <v>-6.291953982727173</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1247199907093746</v>
+        <v>-0.2304272438534709</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.776114067409287</v>
+        <v>-4.790306123689718</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>9.60721268525481</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.514745700184825</v>
+        <v>-6.393851375744327</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2345120423400894</v>
+        <v>-0.3333851134008047</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.654421112495443</v>
+        <v>-4.668403691930407</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>9.882115313448065</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.609023372948095</v>
+        <v>-6.498642167689503</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2321685201314204</v>
+        <v>-0.3349430974389701</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.406230327524842</v>
+        <v>-4.424559551503259</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>10.18793128427422</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.895522236033586</v>
+        <v>-6.783452123708411</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2426816393133265</v>
+        <v>-0.3405204184495454</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.117911634344351</v>
+        <v>-4.127482107721653</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>10.51325209900474</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.129756626174907</v>
+        <v>-7.026196510696854</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3792474502553711</v>
+        <v>-0.4744677688232448</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.852334271199937</v>
+        <v>-3.867285681045189</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>10.86538852820723</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.401500463957774</v>
+        <v>-7.304041361603965</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4800319975309784</v>
+        <v>-0.5689287338262984</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.494233603873046</v>
+        <v>-3.508936259964304</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>11.23597348054539</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.901862093962861</v>
+        <v>-7.815361249087577</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3612062569394726</v>
+        <v>-0.4490817936131379</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.367238266308303</v>
+        <v>-3.388277596974957</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>11.60649125800342</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.304044544957843</v>
+        <v>-8.210015625948566</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4509801775251882</v>
+        <v>-0.5344043312326667</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.384101152368446</v>
+        <v>-3.396800686124921</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>11.98220243721743</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.769096234198795</v>
+        <v>-8.678903359922144</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4959391454836756</v>
+        <v>-0.5751344853732765</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.107552439442666</v>
+        <v>-3.133697768217593</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>12.35444865327549</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.341426252924851</v>
+        <v>-9.258067560731581</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5593844450546801</v>
+        <v>-0.6420754298030219</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.735259715835344</v>
+        <v>-2.764403181961026</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>12.69673575097062</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.908152766034647</v>
+        <v>-9.836276023433571</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5879780344610098</v>
+        <v>-0.65192084154</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.581739372713264</v>
+        <v>-2.598942658647292</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>13.00624967248279</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.81156093902227</v>
+        <v>-10.73569104405447</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5742180241743557</v>
+        <v>-0.6508472727069784</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.186443473013029</v>
+        <v>-2.211135556172524</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>13.27232130355062</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.61049253533292</v>
+        <v>-11.55631658617386</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6460293052612232</v>
+        <v>-0.7133630187762203</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.955613081610557</v>
+        <v>-1.988435484834764</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>13.47017489039884</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.55739333836076</v>
+        <v>-12.50812700276734</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5473133418346087</v>
+        <v>-0.619465022795361</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.732271487433552</v>
+        <v>-1.754659325292903</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>13.58780541324369</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.7185365850906</v>
+        <v>-13.68132826041442</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6410542301813673</v>
+        <v>-0.7172383404173712</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.580413866772371</v>
+        <v>-1.594383353904493</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>13.62091881133175</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.84384619894264</v>
+        <v>-14.79954184612624</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7032688532852496</v>
+        <v>-0.7720296278099948</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.309429382554325</v>
+        <v>-1.342500539532525</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>13.55460606002393</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.9703864892618</v>
+        <v>-15.93469687171526</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7278169211134859</v>
+        <v>-0.7947447732403896</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.231988411245515</v>
+        <v>-1.259469154910298</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>13.37502516930125</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.30441359501664</v>
+        <v>-17.28288984914484</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9136359753461041</v>
+        <v>-0.9747901219198065</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.073218054683903</v>
+        <v>-1.101091567433938</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>13.08988915162756</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78695978420802</v>
+        <v>-18.7873001840819</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9318080916904198</v>
+        <v>-0.9866779329000938</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.115414546742786</v>
+        <v>-1.1387319381039</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>12.69579794105351</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.3457555451496</v>
+        <v>-20.35194820439374</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.022171165904013</v>
+        <v>-1.062011043451386</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.040801512847789</v>
+        <v>-1.069827148247896</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>12.18556260265663</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99596176453212</v>
+        <v>-21.99788633304986</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.138286799807282</v>
+        <v>-1.172902848520805</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.042110743131962</v>
+        <v>-1.090002386926996</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>11.57436097400993</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64800090631249</v>
+        <v>-23.65150964347407</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.280429931759901</v>
+        <v>-1.305122014919397</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.232865595535911</v>
+        <v>-1.279264716806988</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>10.86959180272661</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.7048802365647</v>
+        <v>-25.707171389562</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.292291558134505</v>
+        <v>-1.324721192273461</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.464363694383311</v>
+        <v>-1.516366321270647</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>10.07208419741245</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.70522700314634</v>
+        <v>-27.69442585330192</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.292789065642491</v>
+        <v>-1.329355867479432</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.433871721064931</v>
+        <v>-1.500027127324173</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>9.200928778224419</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.02781461957139</v>
+        <v>-30.00745608865251</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.6106701786396</v>
+        <v>-1.639892198582332</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.679784445341072</v>
+        <v>-1.746083866931573</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>8.267751751438979</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.16059002939709</v>
+        <v>-32.13524333109551</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.606873410815499</v>
+        <v>-1.657239499847619</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.945846223690629</v>
+        <v>-2.034533483140482</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>7.290816466082911</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.53792965630624</v>
+        <v>-34.51395764980304</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.758508462328371</v>
+        <v>-1.788908789526859</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.103935780504471</v>
+        <v>-2.192492116925906</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>6.270435513524283</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.60364629097662</v>
+        <v>-36.60427472151302</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.973811382560556</v>
+        <v>-2.012171829886813</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.328665158782699</v>
+        <v>-2.434110565869961</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.258178224965485</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.91311541995425</v>
+        <v>-38.89756176417828</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.039521650523179</v>
+        <v>-2.058505489643682</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.596716967164199</v>
+        <v>-2.687656102702828</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.231648640159345</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.25577353663567</v>
+        <v>-41.22797857770269</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.447098130288953</v>
+        <v>-2.460020233193737</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.773279763287717</v>
+        <v>-2.866929005514583</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.269213259660108</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.60226769804971</v>
+        <v>-43.58020716776139</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.623752572532363</v>
+        <v>-2.628924032154845</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.968747844714687</v>
+        <v>-3.047772984667345</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.296873367860349</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.94861784413249</v>
+        <v>-45.91876739365335</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.955158034364975</v>
+        <v>-2.944854392028537</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.327764973240499</v>
+        <v>-3.390529473063734</v>
       </c>
     </row>
   </sheetData>
